--- a/tests/test_data/test_global_sectors.xlsx
+++ b/tests/test_data/test_global_sectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikstra\Documents\GitHub\aneris\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66869625-CD6E-43E9-A925-031EF4B7791F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F2E2BD-2624-45A8-AB18-8EB0ED176613}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="11520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="3705" windowWidth="18675" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -79,16 +79,16 @@
     <t>World</t>
   </si>
   <si>
-    <t>prefix|Emissions|BC|Harmonized-DB</t>
-  </si>
-  <si>
-    <t>prefix|Emissions|BC|sector1|Harmonized-DB</t>
-  </si>
-  <si>
-    <t>prefix|Emissions|BC|sector2|Harmonized-DB</t>
-  </si>
-  <si>
     <t>Mt BC/yr</t>
+  </si>
+  <si>
+    <t>prefix|Emissions|BC|Harmonized</t>
+  </si>
+  <si>
+    <t>prefix|Emissions|BC|sector1|Harmonized</t>
+  </si>
+  <si>
+    <t>prefix|Emissions|BC|sector2|Harmonized</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,10 +559,10 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2">
         <v>30</v>
@@ -609,10 +609,10 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>14</v>
@@ -659,10 +659,10 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>16</v>

--- a/tests/test_data/test_global_sectors.xlsx
+++ b/tests/test_data/test_global_sectors.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikstra\Documents\GitHub\aneris\tests\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66869625-CD6E-43E9-A925-031EF4B7791F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="11520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -94,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,14 +152,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -212,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,27 +230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,24 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,16 +439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -568,37 +516,37 @@
         <v>30</v>
       </c>
       <c r="G2">
-        <v>32.854545454545459</v>
+        <v>32.33588516746411</v>
       </c>
       <c r="H2">
-        <v>35.079144385026737</v>
+        <v>34.01818181818182</v>
       </c>
       <c r="I2">
-        <v>36.522994652406418</v>
+        <v>35.52057416267942</v>
       </c>
       <c r="J2">
-        <v>37.765775401069519</v>
+        <v>36.84306220095694</v>
       </c>
       <c r="K2">
-        <v>38.80748663101604</v>
+        <v>37.98564593301435</v>
       </c>
       <c r="L2">
-        <v>39.64812834224599</v>
+        <v>38.94832535885168</v>
       </c>
       <c r="M2">
-        <v>40.28770053475936</v>
+        <v>39.7311004784689</v>
       </c>
       <c r="N2">
-        <v>40.72620320855615</v>
+        <v>40.33397129186603</v>
       </c>
       <c r="O2">
-        <v>40.963636363636368</v>
+        <v>40.75693779904307</v>
       </c>
       <c r="P2">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -618,37 +566,37 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>15.4</v>
+        <v>15.16842105263158</v>
       </c>
       <c r="H3">
-        <v>16.517647058823531</v>
+        <v>16.04210526315789</v>
       </c>
       <c r="I3">
-        <v>17.28235294117647</v>
+        <v>16.83157894736842</v>
       </c>
       <c r="J3">
-        <v>17.952941176470588</v>
+        <v>17.53684210526316</v>
       </c>
       <c r="K3">
-        <v>18.52941176470588</v>
+        <v>18.15789473684211</v>
       </c>
       <c r="L3">
-        <v>19.011764705882349</v>
+        <v>18.69473684210526</v>
       </c>
       <c r="M3">
-        <v>19.399999999999999</v>
+        <v>19.14736842105263</v>
       </c>
       <c r="N3">
-        <v>19.694117647058821</v>
+        <v>19.51578947368421</v>
       </c>
       <c r="O3">
-        <v>19.89411764705882</v>
+        <v>19.8</v>
       </c>
       <c r="P3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -668,31 +616,31 @@
         <v>16</v>
       </c>
       <c r="G4">
-        <v>17.45454545454546</v>
+        <v>17.16746411483254</v>
       </c>
       <c r="H4">
-        <v>18.561497326203209</v>
+        <v>17.97607655502392</v>
       </c>
       <c r="I4">
-        <v>19.240641711229941</v>
+        <v>18.68899521531101</v>
       </c>
       <c r="J4">
-        <v>19.81283422459893</v>
+        <v>19.30622009569378</v>
       </c>
       <c r="K4">
-        <v>20.27807486631016</v>
+        <v>19.82775119617225</v>
       </c>
       <c r="L4">
-        <v>20.63636363636364</v>
+        <v>20.25358851674642</v>
       </c>
       <c r="M4">
-        <v>20.887700534759361</v>
+        <v>20.58373205741627</v>
       </c>
       <c r="N4">
-        <v>21.032085561497329</v>
+        <v>20.81818181818182</v>
       </c>
       <c r="O4">
-        <v>21.069518716577541</v>
+        <v>20.95693779904306</v>
       </c>
       <c r="P4">
         <v>21</v>
